--- a/biology/Médecine/Lanterne_de_Beyne/Lanterne_de_Beyne.xlsx
+++ b/biology/Médecine/Lanterne_de_Beyne/Lanterne_de_Beyne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lanterne de Beyne est un appareil utilisé pour vérifier la capacité d'un individu à identifier rapidement des signaux de couleur en complément du test d'Ishihara.
 Elle émet tour à tour une lumière de couleur bleue, rouge, verte, jaune et blanche. Chaque couleur est émise suivant un angle d'ouverture et à une distance de l’individu bien précis et pendant un temps déterminé (par exemple, 3' d'ouverture à 5 mètres de distance, avec 1 seconde d'exposition).
-Cette lanterne est un des procédés utilisés pour déterminer l'aptitude à pratiquer certaines professions qui requièrent de distinguer des lumières rouges, vertes et blanches, comme la marine et l'aviation[1].
-Sa pertinence peut toutefois être remise en cause. Une étude publiée dans « Aviation, Space, and Environmental Medicine » a en effet montré que même des personnes ayant une vision des couleurs normale pouvaient échouer au test de la lanterne de Beyne[2].
+Cette lanterne est un des procédés utilisés pour déterminer l'aptitude à pratiquer certaines professions qui requièrent de distinguer des lumières rouges, vertes et blanches, comme la marine et l'aviation.
+Sa pertinence peut toutefois être remise en cause. Une étude publiée dans « Aviation, Space, and Environmental Medicine » a en effet montré que même des personnes ayant une vision des couleurs normale pouvaient échouer au test de la lanterne de Beyne.
 </t>
         </is>
       </c>
